--- a/testData/CarModels.xlsx
+++ b/testData/CarModels.xlsx
@@ -13,7 +13,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="62" uniqueCount="18">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="93" uniqueCount="18">
   <si>
     <t>Honda CRF300L</t>
   </si>

--- a/testData/CarModels.xlsx
+++ b/testData/CarModels.xlsx
@@ -13,7 +13,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="93" uniqueCount="18">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="149" uniqueCount="22">
   <si>
     <t>Honda CRF300L</t>
   </si>
@@ -67,6 +67,18 @@
   </si>
   <si>
     <t>Mahindra XUV500</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Mar 2024</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Apr 2024</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Jun 2024</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Unrevealed</t>
   </si>
 </sst>
 </file>
@@ -125,7 +137,7 @@
         <v>3.299999952316284</v>
       </c>
       <c r="C1" t="s" s="0">
-        <v>8</v>
+        <v>18</v>
       </c>
     </row>
     <row r="2">
@@ -136,7 +148,7 @@
         <v>1.100000023841858</v>
       </c>
       <c r="C2" t="s" s="0">
-        <v>8</v>
+        <v>18</v>
       </c>
     </row>
     <row r="3">
@@ -147,7 +159,7 @@
         <v>3.700000047683716</v>
       </c>
       <c r="C3" t="s" s="0">
-        <v>8</v>
+        <v>18</v>
       </c>
     </row>
     <row r="4">
@@ -158,7 +170,7 @@
         <v>2.299999952316284</v>
       </c>
       <c r="C4" t="s" s="0">
-        <v>8</v>
+        <v>18</v>
       </c>
     </row>
     <row r="5">
@@ -169,7 +181,7 @@
         <v>0.7900000214576721</v>
       </c>
       <c r="C5" t="s" s="0">
-        <v>8</v>
+        <v>19</v>
       </c>
     </row>
     <row r="6">
@@ -180,7 +192,7 @@
         <v>1.2000000476837158</v>
       </c>
       <c r="C6" t="s" s="0">
-        <v>8</v>
+        <v>20</v>
       </c>
     </row>
     <row r="7">
@@ -191,7 +203,7 @@
         <v>1.7000000476837158</v>
       </c>
       <c r="C7" t="s" s="0">
-        <v>8</v>
+        <v>21</v>
       </c>
     </row>
     <row r="8">
@@ -202,7 +214,7 @@
         <v>2.299999952316284</v>
       </c>
       <c r="C8" t="s" s="0">
-        <v>8</v>
+        <v>21</v>
       </c>
     </row>
     <row r="9">

--- a/testData/CarModels.xlsx
+++ b/testData/CarModels.xlsx
@@ -13,7 +13,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="149" uniqueCount="22">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="199" uniqueCount="22">
   <si>
     <t>Honda CRF300L</t>
   </si>

--- a/testData/CarModels.xlsx
+++ b/testData/CarModels.xlsx
@@ -8,12 +8,13 @@
   <sheets>
     <sheet name="Bikes" r:id="rId3" sheetId="1"/>
     <sheet name="Models" r:id="rId4" sheetId="2"/>
+    <sheet name="Error message" r:id="rId5" sheetId="3"/>
   </sheets>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="199" uniqueCount="22">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="251" uniqueCount="25">
   <si>
     <t>Honda CRF300L</t>
   </si>
@@ -79,6 +80,15 @@
   </si>
   <si>
     <t xml:space="preserve"> Unrevealed</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> 30 Mar 2024</t>
+  </si>
+  <si>
+    <t>Enter a valid email or phone number</t>
+  </si>
+  <si>
+    <t>Couldn’t find your Google Account</t>
   </si>
 </sst>
 </file>
@@ -137,7 +147,7 @@
         <v>3.299999952316284</v>
       </c>
       <c r="C1" t="s" s="0">
-        <v>18</v>
+        <v>22</v>
       </c>
     </row>
     <row r="2">
@@ -308,4 +318,22 @@
   </sheetData>
   <pageMargins bottom="0.75" footer="0.3" header="0.3" left="0.7" right="0.7" top="0.75"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <dimension ref="A2"/>
+  <sheetViews>
+    <sheetView workbookViewId="0"/>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15.0"/>
+  <sheetData>
+    <row r="2">
+      <c r="A2" t="s" s="0">
+        <v>24</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins bottom="0.75" footer="0.3" header="0.3" left="0.7" right="0.7" top="0.75"/>
+</worksheet>
 </file>
--- a/testData/CarModels.xlsx
+++ b/testData/CarModels.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="251" uniqueCount="25">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="277" uniqueCount="25">
   <si>
     <t>Honda CRF300L</t>
   </si>
